--- a/data/CARBURANT/2024/RAPPORT-06-2024.xlsx
+++ b/data/CARBURANT/2024/RAPPORT-06-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/CARBURANT/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB71CE0-5030-ED43-A6BF-5E1414E6A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A36865-C41B-A04F-AD36-BF0B94B2DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2120" windowWidth="26840" windowHeight="14680" xr2:uid="{0801E10B-E3D5-954C-BAA9-C5ECC1475C20}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="14680" xr2:uid="{0801E10B-E3D5-954C-BAA9-C5ECC1475C20}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B558"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
